--- a/UVexcel2.xlsx
+++ b/UVexcel2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanr\Documents\GitHub\UV-Watch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E20032D5-039C-4128-AE7C-C8BEB20D60C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B21E32-CC65-40F4-BC23-8ACD0F520BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="495" windowWidth="28800" windowHeight="11295" xr2:uid="{6B4BD9CB-56FA-4F2C-B543-A4B9493410CF}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="23010" windowHeight="9015" xr2:uid="{6B4BD9CB-56FA-4F2C-B543-A4B9493410CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -85,7 +85,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1543,7 +1543,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
